--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aumento de producción del Centro de Cultivo Pichico</t>
+          <t>Mejoramiento y continuidad operacional del Plantel Agrícola Los Lagos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Piscicola Entre Ríos S:A:</t>
+          <t>Agrícola y Ganadera Los Lagos Ltda</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/08/2021</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152849957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157299133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30/07/2021</t>
+          <t>12/08/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152783331&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152849957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>30/07/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152411663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152783331&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151483856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152411663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Antilhue</t>
+          <t>Aumento de producción del Centro de Cultivo Pichico</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Antilhue S.A.</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146437092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151483856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Modificación y Ampliación Piscicultura Antilhue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Antilhue S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146437092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO TÉCNICO Y MEJORAMIENTO PISCICULTURA TRAFÚN</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5500</v>
+        <v>25000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/09/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles Industria Láctea Valdivia SpA</t>
+          <t>MODIFICACIÓN PROYECTO TÉCNICO Y MEJORAMIENTO PISCICULTURA TRAFÚN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Camilo De Jesús Román Searle</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>288</v>
+        <v>5500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143012804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Adecuaciones Central Hidroeléctrica San Pedro</t>
+          <t>Planta de Tratamiento de Riles Industria Láctea Valdivia SpA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Camilo De Jesús Román Searle</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>442000</v>
+        <v>288</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/12/2018</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141946585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143012804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Cerros de Huichahue</t>
+          <t>Adecuaciones Central Hidroeléctrica San Pedro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Eletrans S.A</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10770</v>
+        <v>442000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/06/2018</t>
+          <t>10/12/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140778038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141946585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Eólico Caman</t>
+          <t>Nueva Subestación Seccionadora Cerros de Huichahue</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AR Caman SpA</t>
+          <t>Eletrans S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>590000</v>
+        <v>10770</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08/05/2018</t>
+          <t>22/06/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139054175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140778038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Piscicultura Antilhue</t>
+          <t>Parque Eólico Caman</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ANTILHUE S. A.</t>
+          <t>AR Caman SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9000</v>
+        <v>590000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/10/2017</t>
+          <t>08/05/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132812993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139054175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/03/2017</t>
+          <t>20/10/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132166928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132812993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Piscicultura Antilhue</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>ANTILHUE S. A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>23/03/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132166928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Obras Complementarias Línea 2x220 kV Ciruelos-Pichirropulli</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eletrans S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>11300</v>
+        <v>10000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/06/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131508810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Piscicultura Antilhue</t>
+          <t>Obras Complementarias Línea 2x220 kV Ciruelos-Pichirropulli</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ANTILHUE S. A.</t>
+          <t>Eletrans S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>9000</v>
+        <v>11300</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/12/2015</t>
+          <t>21/06/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130862137&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131508810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Construcción de Infraestructura, Etapa 1, Reserva Nacional Mocho - Choshuenco. Región de los Ríos</t>
+          <t>Piscicultura Antilhue</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CONAF, Región de Los Ríos</t>
+          <t>ANTILHUE S. A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>870</v>
+        <v>9000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>06/07/2015</t>
+          <t>23/12/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130459752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130862137&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ADECUACIÓN CENTRAL HIDROELÉCTRICA SAN PEDRO</t>
+          <t>Construcción de Infraestructura, Etapa 1, Reserva Nacional Mocho - Choshuenco. Región de los Ríos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>CONAF, Región de Los Ríos</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>650000</v>
+        <v>870</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>17/06/2015</t>
+          <t>06/07/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130539204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130459752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Construcción de Infraestructura, Etapa 1, Reserva Nacional Mocho - Choshuenco. Región de los Ríos</t>
+          <t>ADECUACIÓN CENTRAL HIDROELÉCTRICA SAN PEDRO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>pablo cunazza mardones</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>878</v>
+        <v>650000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13/02/2015</t>
+          <t>17/06/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130143100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130539204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Construcción de Infraestructura, Etapa 1, Reserva Nacional Mocho - Choshuenco. Región de los Ríos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>pablo cunazza mardones</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5000</v>
+        <v>878</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>13/02/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130143100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN PROYECTO TÉCNICO Y MEJORAS DEL SISTEMA DE TRATAMIENTO DE EFLUENTES DE PISCICULTURA TRAFUN, COMUNA DE LOS LAGOS, PROVINCIA DE VALDIVIA, DÉCIMA CUARTA REGIÓN DE LOS RÍOS. CODIGO CENTRO 103905"</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>02/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128867652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>"MODIFICACIÓN PROYECTO TÉCNICO Y MEJORAS DEL SISTEMA DE TRATAMIENTO DE EFLUENTES DE PISCICULTURA TRAFUN, COMUNA DE LOS LAGOS, PROVINCIA DE VALDIVIA, DÉCIMA CUARTA REGIÓN DE LOS RÍOS. CODIGO CENTRO 103905"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>02/12/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128867652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,40 +1768,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"Línea 2x220 kV Ciruelos-Pichirropulli"</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Eletrans S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>77000</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128563224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>"REGULARIZACIÓN BARRERA DE ENROCADO REMOVIBLE EN EL RIO PICHICO" CENTRO DE CULTIVO HUITE</t>
+          <t>"Línea 2x220 kV Ciruelos-Pichirropulli"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Piscicola Entre Ríos S:A:</t>
+          <t>Eletrans S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>22</v>
+        <v>77000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>02/09/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128532330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128563224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>"REGULARIZACIÓN BARRERA DE ENROCADO REMOVIBLE EN EL RIO PICHICO" CENTRO DE CULTIVO HUITE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,20 +1874,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>02/09/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128532330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL SISTEMA DE TRATAMIENTO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE - Centro Pichico Sistema de ensilaje Centro Pichico</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Piscicola Entre Ríos S:A:</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19/10/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7440692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL SISTEMA DE TRATAMIENTO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE - Centro Pucara Sistema de ensilaje Centro Pucara</t>
+          <t>MODIFICACIÓN DEL SISTEMA DE TRATAMIENTO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE - Centro Pichico Sistema de ensilaje Centro Pichico</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7442186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7440692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos para ser incorporados en el Mejoramiento de la Ruta T-35.</t>
+          <t>MODIFICACIÓN DEL SISTEMA DE TRATAMIENTO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE - Centro Pucara Sistema de ensilaje Centro Pucara</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>OBRASCON HUARTE LAIN S.A.</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>27/09/2012</t>
+          <t>19/10/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7371311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7442186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"Extracción Mecanizada de Áridos para Mejoramiento Ruta T-35 Antilhue - Valdivia, Km 14.906 al km 42.756"</t>
+          <t>Extracción Mecanizada de Áridos para ser incorporados en el Mejoramiento de la Ruta T-35.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Marcelo Andres Eissmann Rieutord</t>
+          <t>OBRASCON HUARTE LAIN S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/08/2012</t>
+          <t>27/09/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7196738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7371311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>"Extracción Mecanizada de Áridos para Mejoramiento Ruta T-35 Antilhue - Valdivia, Km 14.906 al km 42.756"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Marcelo Andres Eissmann Rieutord</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>428</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>08/08/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7196738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"AUMENTO EXTRACCIÓN Y PROCESAMIENTO DE ÁRIDOS POZO EL PASTOR, REGIÓN DE LOS RÍOS-FORESTAL VALDIVIA S.A."</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Forestal Arauco S.A..</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1000</v>
+        <v>319</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>26/07/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5848294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>"AUMENTO EXTRACCIÓN Y PROCESAMIENTO DE ÁRIDOS POZO EL PASTOR, REGIÓN DE LOS RÍOS-FORESTAL VALDIVIA S.A."</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Forestal Arauco S.A..</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>26/07/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5848294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación al manejo de mortalidad mediante un sistema de ensilaje en Centro Trafún</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5483164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Modificación al manejo de mortalidad mediante un sistema de ensilaje en Centro Trafún</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5483164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión San Pedro - S/E Ciruelos (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>21/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4336617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Línea de Alta Tensión San Pedro - S/E Ciruelos (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>21/01/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4336617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ADECUACIÓN DE LAS OBRAS DE LA CENTRAL HIDROELÉCTRICA SAN PEDRO Adecuacion Obras CHSP (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,12 +3554,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>05/02/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>ADECUACIÓN DE LAS OBRAS DE LA CENTRAL HIDROELÉCTRICA SAN PEDRO Adecuacion Obras CHSP (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>05/02/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Trafún Modificación Piscicultura Trafún (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>14/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3110732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Modificación Piscicultura Trafún Modificación Piscicultura Trafún (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1650</v>
+        <v>5000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>14/08/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3110732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Piscicultura Remehue (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>6000</v>
+        <v>1650</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>26/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2991825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Estudio Plan Regulador Comunal I. Municipalidad de Los lagos (e-seia)</t>
+          <t>Piscicultura Remehue (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ORLANDO FERNANDO SILVA SANCHEZ</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>26/06/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2816848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2991825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Estudio Plan Regulador Comunal I. Municipalidad de Los lagos (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,12 +4322,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>ORLANDO FERNANDO SILVA SANCHEZ</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2816848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,26 +4408,30 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica San Pedro</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>202000</v>
+        <v>429</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>30/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4437,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2477205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4452,14 +4456,10 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Piscicultura Pucono (e-seia)</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Central Hidroeléctrica San Pedro</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
           <t>Decimocuarta</t>
@@ -4467,15 +4467,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Werner Federico Schurch Rilling</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>10000</v>
+        <v>202000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>26/10/2007</t>
+          <t>30/10/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2460617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2477205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNA LOS LAGOS (e-seia)</t>
+          <t>Piscicultura Pucono (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4515,25 +4515,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LOS LAGOS</t>
+          <t>Werner Federico Schurch Rilling</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>24/10/2007</t>
+          <t>26/10/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2477216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2460617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PLAN REGULADOR COMUNA LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4558,30 +4558,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>24/10/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2477216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4611,25 +4611,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4659,25 +4659,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4707,25 +4707,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Huite (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4750,30 +4750,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Piscicola Entre Ríos S:A:</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2239585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Centro de Cultivo Huite (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4798,30 +4798,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2239585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DIA Río San Pedro (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4846,30 +4846,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>21/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>DIA Río San Pedro (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4894,30 +4894,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>80</v>
+        <v>15000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>21/06/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,40 +4932,40 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica San Pedro</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>180000</v>
+        <v>80</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>04/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2107144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,40 +4980,40 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Central Hidroeléctrica San Pedro</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>180000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/04/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2107144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5043,25 +5043,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5099,17 +5099,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,15 +5139,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5187,25 +5187,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5243,17 +5243,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,25 +5283,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,25 +5331,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ampliación Centro Pichico (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5374,20 +5374,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Piscicola Entre Ríos S:A:</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>29/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ampliación Centro Pucara (e-seia)</t>
+          <t>Ampliación Centro Pichico (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,7 +5431,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Centro Pucara (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5470,20 +5470,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>250</v>
+        <v>103</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>29/11/2006</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,25 +5571,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,25 +5619,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5675,17 +5675,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,25 +5715,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Recuperación de Subproductos de Suero de Queso Mediante Osmosis Inversa y Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Industrial los Lagos de Prolesur S.A., X Región (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,30 +5758,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>13/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1321605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Recuperación de Subproductos de Suero de Queso Mediante Osmosis Inversa y Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Industrial los Lagos de Prolesur S.A., X Región (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,30 +5806,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>13/03/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1321605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,25 +5859,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,25 +5907,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Recuperación de subproductos de suero de queso mediante osmosis inversa y sistema de tratamiento de residuos industriales líquidos procedentes de los procesos productivos de Prolesur- Planta Los Lagos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,30 +5950,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Terence James Norwood -</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>17400</v>
+        <v>160</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>03/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1084586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Recuperación de subproductos de suero de queso mediante osmosis inversa y sistema de tratamiento de residuos industriales líquidos procedentes de los procesos productivos de Prolesur- Planta Los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,30 +5998,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Terence James Norwood -</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>200</v>
+        <v>17400</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>03/11/2005</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1084586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6051,11 +6051,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,11 +6099,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro Trafun Nº Solicitud 201102002 (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6190,20 +6190,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>26/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=672908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Centro Trafun Nº Solicitud 201102002 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6238,30 +6238,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>26/04/2005</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=672908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,25 +6291,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,15 +6339,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6382,12 +6382,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6430,20 +6430,20 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos en Tres Sectores de Borde de Río del Calle - Calle</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6478,20 +6478,20 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Marcelo Andrade y Cía Limitada</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>06/12/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Diseño de Ingenieria y/o Arquitectura Construccion de Casetas Sanitarias Riñihue Comuna de Los Lagos ( Segunda Presentación)</t>
+          <t>Extracción Industrial de Aridos en Tres Sectores de Borde de Río del Calle - Calle</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Los Lagos</t>
+          <t>Marcelo Andrade y Cía Limitada</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>12/07/2002</t>
+          <t>06/12/2002</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro Pichico N°200102017</t>
+          <t>Diseño de Ingenieria y/o Arquitectura Construccion de Casetas Sanitarias Riñihue Comuna de Los Lagos ( Segunda Presentación)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Piscícola Entre Rios s.a</t>
+          <t>I. Municipalidad de Los Lagos</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>24/12/2001</t>
+          <t>12/07/2002</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Diseño de Ingenieria y/o Arquitectura Construccion de Casetas Sanitarias Riñihue Comuna de Los Lagos</t>
+          <t>Centro Pichico N°200102017</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,25 +6627,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Los Lagos</t>
+          <t>Piscícola Entre Rios s.a</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>08/11/2001</t>
+          <t>24/12/2001</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
+          <t>Diseño de Ingenieria y/o Arquitectura Construccion de Casetas Sanitarias Riñihue Comuna de Los Lagos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6670,30 +6670,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Ecogas S.A.</t>
+          <t>I. Municipalidad de Los Lagos</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>12/10/2001</t>
+          <t>08/11/2001</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Los Lagos</t>
+          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6718,20 +6718,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Ecogas S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>740</v>
+        <v>10000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>25/07/2001</t>
+          <t>12/10/2001</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF de Ruta 5 Km. 8346 Comuna de Los Lagos Provincia de Valdivia Décima Región</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Los Lagos</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,15 +6771,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>400</v>
+        <v>740</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>05/06/2001</t>
+          <t>25/07/2001</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro Pucará (Centro Piscícola)</t>
+          <t>Estación de Servicio YPF de Ruta 5 Km. 8346 Comuna de Los Lagos Provincia de Valdivia Décima Región</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,15 +6819,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Piscícola Entre Rios s.a</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>15/02/2001</t>
+          <t>05/06/2001</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Proyecto de Instalación del Sistema de Alcantarillado y Tratamiento de Aguas Servidas de Folilco</t>
+          <t>Centro Pucará (Centro Piscícola)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,15 +6867,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Los Lagos</t>
+          <t>Piscícola Entre Rios s.a</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>16/08/1999</t>
+          <t>15/02/2001</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Proyecto de Instalación del Sistema de Alcantarillado y Tratamiento de las Aguas Servidas de Antilhue</t>
+          <t>Proyecto de Instalación del Sistema de Alcantarillado y Tratamiento de Aguas Servidas de Folilco</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>03/08/1999</t>
+          <t>16/08/1999</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Proyecto de Instalación del Sistema de Alcantarillado y Tratamiento de las Aguas Servidas de Antilhue</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,20 +6958,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>I. Municipalidad de Los Lagos</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2500</v>
+        <v>280</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>03/08/1999</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Restaurante Purey</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,20 +7006,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>María Borneck Matamala</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>24/07/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Camping-Hostería Purey</t>
+          <t>Restaurante Purey</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7057,26 +7057,74 @@
           <t>Decimocuarta</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>María Borneck Matamala</t>
+        </is>
+      </c>
       <c r="F140" t="n">
         <v>10</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
+          <t>24/07/1998</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1345&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Camping-Hostería Purey</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Decimocuarta</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="n">
+        <v>10</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
           <t>22/09/1997</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=49&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>Los Lagos</t>
         </is>

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>21/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mejoramiento y continuidad operacional del Plantel Agrícola Los Lagos</t>
+          <t>Optimización Centro de Cultivo Pichico y Mejoras del Sistema de Tratamiento de Efluentes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Agrícola y Ganadera Los Lagos Ltda</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2800</v>
+        <v>100</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/10/2022</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157299133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158668828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aumento de producción del Centro de Cultivo Pichico</t>
+          <t>Mejoramiento y continuidad operacional del Plantel Agrícola Los Lagos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Piscicola Entre Ríos S:A:</t>
+          <t>Agrícola y Ganadera Los Lagos Ltda</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12/08/2021</t>
+          <t>21/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152849957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157299133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30/07/2021</t>
+          <t>12/08/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152783331&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152849957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>30/07/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152411663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152783331&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151483856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152411663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Antilhue</t>
+          <t>Aumento de producción del Centro de Cultivo Pichico</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Antilhue S.A.</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146437092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151483856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Modificación y Ampliación Piscicultura Antilhue</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Antilhue S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146437092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO TÉCNICO Y MEJORAMIENTO PISCICULTURA TRAFÚN</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,20 +770,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5500</v>
+        <v>25000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/09/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles Industria Láctea Valdivia SpA</t>
+          <t>MODIFICACIÓN PROYECTO TÉCNICO Y MEJORAMIENTO PISCICULTURA TRAFÚN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Camilo De Jesús Román Searle</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>288</v>
+        <v>5500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143012804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Adecuaciones Central Hidroeléctrica San Pedro</t>
+          <t>Planta de Tratamiento de Riles Industria Láctea Valdivia SpA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Camilo De Jesús Román Searle</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>442000</v>
+        <v>288</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/12/2018</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141946585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143012804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Cerros de Huichahue</t>
+          <t>Adecuaciones Central Hidroeléctrica San Pedro</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eletrans S.A</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10770</v>
+        <v>442000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/06/2018</t>
+          <t>10/12/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140778038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141946585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Eólico Caman</t>
+          <t>Nueva Subestación Seccionadora Cerros de Huichahue</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AR Caman SpA</t>
+          <t>Eletrans S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>590000</v>
+        <v>10770</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08/05/2018</t>
+          <t>22/06/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139054175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140778038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Piscicultura Antilhue</t>
+          <t>Parque Eólico Caman</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ANTILHUE S. A.</t>
+          <t>AR Caman SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>9000</v>
+        <v>590000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/10/2017</t>
+          <t>08/05/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132812993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139054175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/03/2017</t>
+          <t>20/10/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132166928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132812993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Piscicultura Antilhue</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>ANTILHUE S. A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>23/03/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132166928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Obras Complementarias Línea 2x220 kV Ciruelos-Pichirropulli</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Eletrans S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>11300</v>
+        <v>10000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/06/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131508810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Piscicultura Antilhue</t>
+          <t>Obras Complementarias Línea 2x220 kV Ciruelos-Pichirropulli</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ANTILHUE S. A.</t>
+          <t>Eletrans S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9000</v>
+        <v>11300</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/12/2015</t>
+          <t>21/06/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130862137&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131508810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Construcción de Infraestructura, Etapa 1, Reserva Nacional Mocho - Choshuenco. Región de los Ríos</t>
+          <t>Piscicultura Antilhue</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CONAF, Región de Los Ríos</t>
+          <t>ANTILHUE S. A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>870</v>
+        <v>9000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06/07/2015</t>
+          <t>23/12/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130459752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130862137&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ADECUACIÓN CENTRAL HIDROELÉCTRICA SAN PEDRO</t>
+          <t>Construcción de Infraestructura, Etapa 1, Reserva Nacional Mocho - Choshuenco. Región de los Ríos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>CONAF, Región de Los Ríos</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>650000</v>
+        <v>870</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>17/06/2015</t>
+          <t>06/07/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130539204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130459752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Construcción de Infraestructura, Etapa 1, Reserva Nacional Mocho - Choshuenco. Región de los Ríos</t>
+          <t>ADECUACIÓN CENTRAL HIDROELÉCTRICA SAN PEDRO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>pablo cunazza mardones</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>878</v>
+        <v>650000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/02/2015</t>
+          <t>17/06/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130143100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130539204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Construcción de Infraestructura, Etapa 1, Reserva Nacional Mocho - Choshuenco. Región de los Ríos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>pablo cunazza mardones</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5000</v>
+        <v>878</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>13/02/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130143100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN PROYECTO TÉCNICO Y MEJORAS DEL SISTEMA DE TRATAMIENTO DE EFLUENTES DE PISCICULTURA TRAFUN, COMUNA DE LOS LAGOS, PROVINCIA DE VALDIVIA, DÉCIMA CUARTA REGIÓN DE LOS RÍOS. CODIGO CENTRO 103905"</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>02/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128867652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>"MODIFICACIÓN PROYECTO TÉCNICO Y MEJORAS DEL SISTEMA DE TRATAMIENTO DE EFLUENTES DE PISCICULTURA TRAFUN, COMUNA DE LOS LAGOS, PROVINCIA DE VALDIVIA, DÉCIMA CUARTA REGIÓN DE LOS RÍOS. CODIGO CENTRO 103905"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>02/12/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128867652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,40 +1816,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>"Línea 2x220 kV Ciruelos-Pichirropulli"</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Eletrans S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>77000</v>
+        <v>5000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128563224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,12 +1864,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"REGULARIZACIÓN BARRERA DE ENROCADO REMOVIBLE EN EL RIO PICHICO" CENTRO DE CULTIVO HUITE</t>
+          <t>"Línea 2x220 kV Ciruelos-Pichirropulli"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Piscicola Entre Ríos S:A:</t>
+          <t>Eletrans S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>22</v>
+        <v>77000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>02/09/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128532330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128563224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>"REGULARIZACIÓN BARRERA DE ENROCADO REMOVIBLE EN EL RIO PICHICO" CENTRO DE CULTIVO HUITE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>02/09/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128532330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL SISTEMA DE TRATAMIENTO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE - Centro Pichico Sistema de ensilaje Centro Pichico</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Piscicola Entre Ríos S:A:</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19/10/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7440692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL SISTEMA DE TRATAMIENTO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE - Centro Pucara Sistema de ensilaje Centro Pucara</t>
+          <t>MODIFICACIÓN DEL SISTEMA DE TRATAMIENTO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE - Centro Pichico Sistema de ensilaje Centro Pichico</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7442186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7440692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos para ser incorporados en el Mejoramiento de la Ruta T-35.</t>
+          <t>MODIFICACIÓN DEL SISTEMA DE TRATAMIENTO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE - Centro Pucara Sistema de ensilaje Centro Pucara</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OBRASCON HUARTE LAIN S.A.</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>27/09/2012</t>
+          <t>19/10/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7371311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7442186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"Extracción Mecanizada de Áridos para Mejoramiento Ruta T-35 Antilhue - Valdivia, Km 14.906 al km 42.756"</t>
+          <t>Extracción Mecanizada de Áridos para ser incorporados en el Mejoramiento de la Ruta T-35.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Marcelo Andres Eissmann Rieutord</t>
+          <t>OBRASCON HUARTE LAIN S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/08/2012</t>
+          <t>27/09/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7196738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7371311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>"Extracción Mecanizada de Áridos para Mejoramiento Ruta T-35 Antilhue - Valdivia, Km 14.906 al km 42.756"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Marcelo Andres Eissmann Rieutord</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>428</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>08/08/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7196738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"AUMENTO EXTRACCIÓN Y PROCESAMIENTO DE ÁRIDOS POZO EL PASTOR, REGIÓN DE LOS RÍOS-FORESTAL VALDIVIA S.A."</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Forestal Arauco S.A..</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>319</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>26/07/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5848294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>"AUMENTO EXTRACCIÓN Y PROCESAMIENTO DE ÁRIDOS POZO EL PASTOR, REGIÓN DE LOS RÍOS-FORESTAL VALDIVIA S.A."</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Forestal Arauco S.A..</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>26/07/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5848294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación al manejo de mortalidad mediante un sistema de ensilaje en Centro Trafún</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5483164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Modificación al manejo de mortalidad mediante un sistema de ensilaje en Centro Trafún</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5483164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión San Pedro - S/E Ciruelos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,20 +3218,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>21/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4336617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Línea de Alta Tensión San Pedro - S/E Ciruelos (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>21/01/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4336617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ADECUACIÓN DE LAS OBRAS DE LA CENTRAL HIDROELÉCTRICA SAN PEDRO Adecuacion Obras CHSP (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>05/02/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>ADECUACIÓN DE LAS OBRAS DE LA CENTRAL HIDROELÉCTRICA SAN PEDRO Adecuacion Obras CHSP (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,12 +3650,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>05/02/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Trafún Modificación Piscicultura Trafún (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>14/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3110732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Modificación Piscicultura Trafún Modificación Piscicultura Trafún (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1650</v>
+        <v>5000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>14/08/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3110732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Piscicultura Remehue (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>6000</v>
+        <v>1650</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>26/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2991825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Estudio Plan Regulador Comunal I. Municipalidad de Los lagos (e-seia)</t>
+          <t>Piscicultura Remehue (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ORLANDO FERNANDO SILVA SANCHEZ</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>26/06/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2816848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2991825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Estudio Plan Regulador Comunal I. Municipalidad de Los lagos (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>ORLANDO FERNANDO SILVA SANCHEZ</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2816848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,26 +4456,30 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica San Pedro</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>202000</v>
+        <v>429</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>30/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4485,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2477205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,14 +4504,10 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Piscicultura Pucono (e-seia)</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Central Hidroeléctrica San Pedro</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
           <t>Decimocuarta</t>
@@ -4515,15 +4515,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Werner Federico Schurch Rilling</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>10000</v>
+        <v>202000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>26/10/2007</t>
+          <t>30/10/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2460617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2477205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNA LOS LAGOS (e-seia)</t>
+          <t>Piscicultura Pucono (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4563,25 +4563,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LOS LAGOS</t>
+          <t>Werner Federico Schurch Rilling</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>24/10/2007</t>
+          <t>26/10/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2477216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2460617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PLAN REGULADOR COMUNA LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4606,30 +4606,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>24/10/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2477216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4659,25 +4659,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4707,25 +4707,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4755,25 +4755,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Huite (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4798,30 +4798,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Piscicola Entre Ríos S:A:</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2239585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Centro de Cultivo Huite (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4846,30 +4846,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2239585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DIA Río San Pedro (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4894,30 +4894,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>21/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>DIA Río San Pedro (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4942,30 +4942,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>80</v>
+        <v>15000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>21/06/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,40 +4980,40 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica San Pedro</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>180000</v>
+        <v>80</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>04/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2107144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,40 +5028,40 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Central Hidroeléctrica San Pedro</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>180000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/04/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2107144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,25 +5091,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5147,17 +5147,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5187,15 +5187,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,25 +5235,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5291,17 +5291,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,25 +5331,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,25 +5379,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ampliación Centro Pichico (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5422,20 +5422,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Piscicola Entre Ríos S:A:</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>29/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ampliación Centro Pucara (e-seia)</t>
+          <t>Ampliación Centro Pichico (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,7 +5479,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Centro Pucara (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5518,20 +5518,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>250</v>
+        <v>103</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>29/11/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,25 +5619,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,25 +5667,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5723,17 +5723,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,25 +5763,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Recuperación de Subproductos de Suero de Queso Mediante Osmosis Inversa y Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Industrial los Lagos de Prolesur S.A., X Región (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,30 +5806,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>13/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1321605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Recuperación de Subproductos de Suero de Queso Mediante Osmosis Inversa y Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Industrial los Lagos de Prolesur S.A., X Región (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,30 +5854,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>13/03/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1321605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,25 +5907,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,25 +5955,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Recuperación de subproductos de suero de queso mediante osmosis inversa y sistema de tratamiento de residuos industriales líquidos procedentes de los procesos productivos de Prolesur- Planta Los Lagos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,30 +5998,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Terence James Norwood -</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>17400</v>
+        <v>160</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>03/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1084586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Recuperación de subproductos de suero de queso mediante osmosis inversa y sistema de tratamiento de residuos industriales líquidos procedentes de los procesos productivos de Prolesur- Planta Los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6046,30 +6046,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Terence James Norwood -</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>200</v>
+        <v>17400</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>03/11/2005</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1084586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6099,11 +6099,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6147,11 +6147,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Centro Trafun Nº Solicitud 201102002 (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6238,20 +6238,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>26/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=672908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Centro Trafun Nº Solicitud 201102002 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6286,30 +6286,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>26/04/2005</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=672908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,25 +6339,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,15 +6387,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6430,12 +6430,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6478,20 +6478,20 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos en Tres Sectores de Borde de Río del Calle - Calle</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6526,20 +6526,20 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Marcelo Andrade y Cía Limitada</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>06/12/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Diseño de Ingenieria y/o Arquitectura Construccion de Casetas Sanitarias Riñihue Comuna de Los Lagos ( Segunda Presentación)</t>
+          <t>Extracción Industrial de Aridos en Tres Sectores de Borde de Río del Calle - Calle</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Los Lagos</t>
+          <t>Marcelo Andrade y Cía Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>12/07/2002</t>
+          <t>06/12/2002</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centro Pichico N°200102017</t>
+          <t>Diseño de Ingenieria y/o Arquitectura Construccion de Casetas Sanitarias Riñihue Comuna de Los Lagos ( Segunda Presentación)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,15 +6627,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Piscícola Entre Rios s.a</t>
+          <t>I. Municipalidad de Los Lagos</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>24/12/2001</t>
+          <t>12/07/2002</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Diseño de Ingenieria y/o Arquitectura Construccion de Casetas Sanitarias Riñihue Comuna de Los Lagos</t>
+          <t>Centro Pichico N°200102017</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,25 +6675,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Los Lagos</t>
+          <t>Piscícola Entre Rios s.a</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>08/11/2001</t>
+          <t>24/12/2001</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
+          <t>Diseño de Ingenieria y/o Arquitectura Construccion de Casetas Sanitarias Riñihue Comuna de Los Lagos</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6718,30 +6718,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Ecogas S.A.</t>
+          <t>I. Municipalidad de Los Lagos</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>12/10/2001</t>
+          <t>08/11/2001</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Los Lagos</t>
+          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,20 +6766,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Ecogas S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>740</v>
+        <v>10000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>25/07/2001</t>
+          <t>12/10/2001</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF de Ruta 5 Km. 8346 Comuna de Los Lagos Provincia de Valdivia Décima Región</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Los Lagos</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,15 +6819,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>400</v>
+        <v>740</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>05/06/2001</t>
+          <t>25/07/2001</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Centro Pucará (Centro Piscícola)</t>
+          <t>Estación de Servicio YPF de Ruta 5 Km. 8346 Comuna de Los Lagos Provincia de Valdivia Décima Región</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,15 +6867,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Piscícola Entre Rios s.a</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>15/02/2001</t>
+          <t>05/06/2001</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Proyecto de Instalación del Sistema de Alcantarillado y Tratamiento de Aguas Servidas de Folilco</t>
+          <t>Centro Pucará (Centro Piscícola)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,15 +6915,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Los Lagos</t>
+          <t>Piscícola Entre Rios s.a</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>16/08/1999</t>
+          <t>15/02/2001</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Proyecto de Instalación del Sistema de Alcantarillado y Tratamiento de las Aguas Servidas de Antilhue</t>
+          <t>Proyecto de Instalación del Sistema de Alcantarillado y Tratamiento de Aguas Servidas de Folilco</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>03/08/1999</t>
+          <t>16/08/1999</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Proyecto de Instalación del Sistema de Alcantarillado y Tratamiento de las Aguas Servidas de Antilhue</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,20 +7006,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>I. Municipalidad de Los Lagos</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2500</v>
+        <v>280</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>03/08/1999</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Restaurante Purey</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,20 +7054,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>María Borneck Matamala</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>24/07/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Camping-Hostería Purey</t>
+          <t>Restaurante Purey</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7105,26 +7105,74 @@
           <t>Decimocuarta</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>María Borneck Matamala</t>
+        </is>
+      </c>
       <c r="F141" t="n">
         <v>10</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
+          <t>24/07/1998</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1345&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Camping-Hostería Purey</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Decimocuarta</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="n">
+        <v>10</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
           <t>22/09/1997</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=49&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>Los Lagos</t>
         </is>

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>24/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -6819,7 +6819,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/02/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158668828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160076076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mejoramiento y continuidad operacional del Plantel Agrícola Los Lagos</t>
+          <t>Optimización Centro de Cultivo Pichico y Mejoras del Sistema de Tratamiento de Efluentes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Agrícola y Ganadera Los Lagos Ltda</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2800</v>
+        <v>100</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/10/2022</t>
+          <t>24/02/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157299133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158668828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aumento de producción del Centro de Cultivo Pichico</t>
+          <t>Mejoramiento y continuidad operacional del Plantel Agrícola Los Lagos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Piscicola Entre Ríos S:A:</t>
+          <t>Agrícola y Ganadera Los Lagos Ltda</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12/08/2021</t>
+          <t>21/10/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152849957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157299133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>30/07/2021</t>
+          <t>12/08/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152783331&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152849957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>30/07/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152411663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152783331&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151483856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152411663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Antilhue</t>
+          <t>Aumento de producción del Centro de Cultivo Pichico</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Antilhue S.A.</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146437092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151483856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Modificación y Ampliación Piscicultura Antilhue</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Antilhue S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146437092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO TÉCNICO Y MEJORAMIENTO PISCICULTURA TRAFÚN</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5500</v>
+        <v>25000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/09/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles Industria Láctea Valdivia SpA</t>
+          <t>MODIFICACIÓN PROYECTO TÉCNICO Y MEJORAMIENTO PISCICULTURA TRAFÚN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Camilo De Jesús Román Searle</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>288</v>
+        <v>5500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143012804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Adecuaciones Central Hidroeléctrica San Pedro</t>
+          <t>Planta de Tratamiento de Riles Industria Láctea Valdivia SpA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Camilo De Jesús Román Searle</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>442000</v>
+        <v>288</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/12/2018</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141946585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143012804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Cerros de Huichahue</t>
+          <t>Adecuaciones Central Hidroeléctrica San Pedro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Eletrans S.A</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10770</v>
+        <v>442000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/06/2018</t>
+          <t>10/12/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140778038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141946585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Eólico Caman</t>
+          <t>Nueva Subestación Seccionadora Cerros de Huichahue</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AR Caman SpA</t>
+          <t>Eletrans S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>590000</v>
+        <v>10770</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/05/2018</t>
+          <t>22/06/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139054175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140778038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Piscicultura Antilhue</t>
+          <t>Parque Eólico Caman</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ANTILHUE S. A.</t>
+          <t>AR Caman SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>9000</v>
+        <v>590000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/10/2017</t>
+          <t>08/05/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132812993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139054175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/03/2017</t>
+          <t>20/10/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132166928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132812993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Piscicultura Antilhue</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>ANTILHUE S. A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>23/03/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132166928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Obras Complementarias Línea 2x220 kV Ciruelos-Pichirropulli</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eletrans S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>11300</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/06/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131508810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Piscicultura Antilhue</t>
+          <t>Obras Complementarias Línea 2x220 kV Ciruelos-Pichirropulli</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ANTILHUE S. A.</t>
+          <t>Eletrans S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9000</v>
+        <v>11300</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/12/2015</t>
+          <t>21/06/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130862137&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131508810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Construcción de Infraestructura, Etapa 1, Reserva Nacional Mocho - Choshuenco. Región de los Ríos</t>
+          <t>Piscicultura Antilhue</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CONAF, Región de Los Ríos</t>
+          <t>ANTILHUE S. A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>870</v>
+        <v>9000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>06/07/2015</t>
+          <t>23/12/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130459752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130862137&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ADECUACIÓN CENTRAL HIDROELÉCTRICA SAN PEDRO</t>
+          <t>Construcción de Infraestructura, Etapa 1, Reserva Nacional Mocho - Choshuenco. Región de los Ríos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>CONAF, Región de Los Ríos</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>650000</v>
+        <v>870</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17/06/2015</t>
+          <t>06/07/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130539204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130459752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Construcción de Infraestructura, Etapa 1, Reserva Nacional Mocho - Choshuenco. Región de los Ríos</t>
+          <t>ADECUACIÓN CENTRAL HIDROELÉCTRICA SAN PEDRO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>pablo cunazza mardones</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>878</v>
+        <v>650000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13/02/2015</t>
+          <t>17/06/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130143100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130539204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Construcción de Infraestructura, Etapa 1, Reserva Nacional Mocho - Choshuenco. Región de los Ríos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>pablo cunazza mardones</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5000</v>
+        <v>878</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>13/02/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130143100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN PROYECTO TÉCNICO Y MEJORAS DEL SISTEMA DE TRATAMIENTO DE EFLUENTES DE PISCICULTURA TRAFUN, COMUNA DE LOS LAGOS, PROVINCIA DE VALDIVIA, DÉCIMA CUARTA REGIÓN DE LOS RÍOS. CODIGO CENTRO 103905"</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>02/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128867652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>"MODIFICACIÓN PROYECTO TÉCNICO Y MEJORAS DEL SISTEMA DE TRATAMIENTO DE EFLUENTES DE PISCICULTURA TRAFUN, COMUNA DE LOS LAGOS, PROVINCIA DE VALDIVIA, DÉCIMA CUARTA REGIÓN DE LOS RÍOS. CODIGO CENTRO 103905"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>02/12/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128867652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,40 +1864,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"Línea 2x220 kV Ciruelos-Pichirropulli"</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Eletrans S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>77000</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128563224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"REGULARIZACIÓN BARRERA DE ENROCADO REMOVIBLE EN EL RIO PICHICO" CENTRO DE CULTIVO HUITE</t>
+          <t>"Línea 2x220 kV Ciruelos-Pichirropulli"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Piscicola Entre Ríos S:A:</t>
+          <t>Eletrans S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>22</v>
+        <v>77000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>02/09/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128532330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128563224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>"REGULARIZACIÓN BARRERA DE ENROCADO REMOVIBLE EN EL RIO PICHICO" CENTRO DE CULTIVO HUITE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>02/09/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128532330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL SISTEMA DE TRATAMIENTO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE - Centro Pichico Sistema de ensilaje Centro Pichico</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Piscicola Entre Ríos S:A:</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19/10/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7440692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL SISTEMA DE TRATAMIENTO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE - Centro Pucara Sistema de ensilaje Centro Pucara</t>
+          <t>MODIFICACIÓN DEL SISTEMA DE TRATAMIENTO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE - Centro Pichico Sistema de ensilaje Centro Pichico</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7442186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7440692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos para ser incorporados en el Mejoramiento de la Ruta T-35.</t>
+          <t>MODIFICACIÓN DEL SISTEMA DE TRATAMIENTO DE MORTALIDAD MEDIANTE SISTEMA DE ENSILAJE - Centro Pucara Sistema de ensilaje Centro Pucara</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OBRASCON HUARTE LAIN S.A.</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>27/09/2012</t>
+          <t>19/10/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7371311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7442186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"Extracción Mecanizada de Áridos para Mejoramiento Ruta T-35 Antilhue - Valdivia, Km 14.906 al km 42.756"</t>
+          <t>Extracción Mecanizada de Áridos para ser incorporados en el Mejoramiento de la Ruta T-35.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Marcelo Andres Eissmann Rieutord</t>
+          <t>OBRASCON HUARTE LAIN S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/08/2012</t>
+          <t>27/09/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7196738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7371311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>"Extracción Mecanizada de Áridos para Mejoramiento Ruta T-35 Antilhue - Valdivia, Km 14.906 al km 42.756"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Marcelo Andres Eissmann Rieutord</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>428</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>08/08/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7196738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>"AUMENTO EXTRACCIÓN Y PROCESAMIENTO DE ÁRIDOS POZO EL PASTOR, REGIÓN DE LOS RÍOS-FORESTAL VALDIVIA S.A."</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Forestal Arauco S.A..</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1000</v>
+        <v>319</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>26/07/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5848294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>"AUMENTO EXTRACCIÓN Y PROCESAMIENTO DE ÁRIDOS POZO EL PASTOR, REGIÓN DE LOS RÍOS-FORESTAL VALDIVIA S.A."</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,20 +2834,20 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Forestal Arauco S.A..</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>26/07/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5848294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación al manejo de mortalidad mediante un sistema de ensilaje en Centro Trafún</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5483164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Modificación al manejo de mortalidad mediante un sistema de ensilaje en Centro Trafún</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5483164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión San Pedro - S/E Ciruelos (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>21/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4336617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Línea de Alta Tensión San Pedro - S/E Ciruelos (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>21/01/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4336617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ADECUACIÓN DE LAS OBRAS DE LA CENTRAL HIDROELÉCTRICA SAN PEDRO Adecuacion Obras CHSP (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,12 +3650,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>05/02/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>ADECUACIÓN DE LAS OBRAS DE LA CENTRAL HIDROELÉCTRICA SAN PEDRO Adecuacion Obras CHSP (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,12 +3698,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>05/02/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Trafún Modificación Piscicultura Trafún (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>14/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3110732&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Modificación Piscicultura Trafún Modificación Piscicultura Trafún (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1650</v>
+        <v>5000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>14/08/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3110732&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Piscicultura Remehue (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>6000</v>
+        <v>1650</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>26/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2991825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Estudio Plan Regulador Comunal I. Municipalidad de Los lagos (e-seia)</t>
+          <t>Piscicultura Remehue (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ORLANDO FERNANDO SILVA SANCHEZ</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>26/06/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2816848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2991825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Estudio Plan Regulador Comunal I. Municipalidad de Los lagos (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,12 +4418,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>ORLANDO FERNANDO SILVA SANCHEZ</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2816848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,26 +4504,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica San Pedro</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>202000</v>
+        <v>429</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>30/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4533,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2477205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,14 +4552,10 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Piscicultura Pucono (e-seia)</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Central Hidroeléctrica San Pedro</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
           <t>Decimocuarta</t>
@@ -4563,15 +4563,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Werner Federico Schurch Rilling</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>10000</v>
+        <v>202000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>26/10/2007</t>
+          <t>30/10/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2460617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2477205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNA LOS LAGOS (e-seia)</t>
+          <t>Piscicultura Pucono (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4611,25 +4611,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE LOS LAGOS</t>
+          <t>Werner Federico Schurch Rilling</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>24/10/2007</t>
+          <t>26/10/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2477216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2460617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PLAN REGULADOR COMUNA LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4654,30 +4654,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>ILUSTRE MUNICIPALIDAD DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>24/10/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2477216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4707,25 +4707,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4755,25 +4755,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4803,25 +4803,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Huite (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4846,30 +4846,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Piscicola Entre Ríos S:A:</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2239585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Centro de Cultivo Huite (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4894,30 +4894,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2239585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DIA Río San Pedro (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4942,30 +4942,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>21/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>DIA Río San Pedro (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4990,30 +4990,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>80</v>
+        <v>15000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>21/06/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,40 +5028,40 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica San Pedro</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>180000</v>
+        <v>80</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>04/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2107144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,40 +5076,40 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Central Hidroeléctrica San Pedro</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>180000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/04/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2107144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,25 +5139,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5195,17 +5195,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,15 +5235,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,25 +5283,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5339,17 +5339,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,25 +5379,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,25 +5427,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ampliación Centro Pichico (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5470,20 +5470,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Piscicola Entre Ríos S:A:</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>29/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ampliación Centro Pucara (e-seia)</t>
+          <t>Ampliación Centro Pichico (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1844307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Centro Pucara (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,20 +5566,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Piscicola Entre Ríos S:A:</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>250</v>
+        <v>103</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>29/11/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,25 +5667,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,25 +5715,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5771,17 +5771,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,25 +5811,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Recuperación de Subproductos de Suero de Queso Mediante Osmosis Inversa y Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Industrial los Lagos de Prolesur S.A., X Región (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,30 +5854,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>13/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1321605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Recuperación de Subproductos de Suero de Queso Mediante Osmosis Inversa y Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Industrial los Lagos de Prolesur S.A., X Región (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,30 +5902,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>13/03/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1321605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,25 +5955,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6003,25 +6003,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Recuperación de subproductos de suero de queso mediante osmosis inversa y sistema de tratamiento de residuos industriales líquidos procedentes de los procesos productivos de Prolesur- Planta Los Lagos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6046,30 +6046,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Terence James Norwood -</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>17400</v>
+        <v>160</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>03/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1084586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Recuperación de subproductos de suero de queso mediante osmosis inversa y sistema de tratamiento de residuos industriales líquidos procedentes de los procesos productivos de Prolesur- Planta Los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6094,30 +6094,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Terence James Norwood -</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>200</v>
+        <v>17400</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>03/11/2005</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1084586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6147,11 +6147,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6195,11 +6195,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6251,7 +6251,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Centro Trafun Nº Solicitud 201102002 (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6286,20 +6286,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>26/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=672908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Centro Trafun Nº Solicitud 201102002 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6334,30 +6334,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Piscicultura y Acuícola Aquaprotec S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>26/04/2005</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=672908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,25 +6387,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,15 +6435,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6478,12 +6478,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6526,20 +6526,20 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos en Tres Sectores de Borde de Río del Calle - Calle</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6574,20 +6574,20 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Marcelo Andrade y Cía Limitada</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>06/12/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Diseño de Ingenieria y/o Arquitectura Construccion de Casetas Sanitarias Riñihue Comuna de Los Lagos ( Segunda Presentación)</t>
+          <t>Extracción Industrial de Aridos en Tres Sectores de Borde de Río del Calle - Calle</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,15 +6627,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Los Lagos</t>
+          <t>Marcelo Andrade y Cía Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>12/07/2002</t>
+          <t>06/12/2002</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centro Pichico N°200102017</t>
+          <t>Diseño de Ingenieria y/o Arquitectura Construccion de Casetas Sanitarias Riñihue Comuna de Los Lagos ( Segunda Presentación)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,15 +6675,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Piscícola Entre Rios s.a</t>
+          <t>I. Municipalidad de Los Lagos</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>24/12/2001</t>
+          <t>12/07/2002</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Diseño de Ingenieria y/o Arquitectura Construccion de Casetas Sanitarias Riñihue Comuna de Los Lagos</t>
+          <t>Centro Pichico N°200102017</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,25 +6723,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Los Lagos</t>
+          <t>Piscícola Entre Rios s.a</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>08/11/2001</t>
+          <t>24/12/2001</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
+          <t>Diseño de Ingenieria y/o Arquitectura Construccion de Casetas Sanitarias Riñihue Comuna de Los Lagos</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,30 +6766,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Ecogas S.A.</t>
+          <t>I. Municipalidad de Los Lagos</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>12/10/2001</t>
+          <t>08/11/2001</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Los Lagos</t>
+          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6814,20 +6814,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Suralis S.A.</t>
+          <t>Ecogas S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>740</v>
+        <v>10000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>25/07/2001</t>
+          <t>12/10/2001</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF de Ruta 5 Km. 8346 Comuna de Los Lagos Provincia de Valdivia Décima Región</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Los Lagos</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,15 +6867,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>400</v>
+        <v>740</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>05/06/2001</t>
+          <t>25/07/2001</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Centro Pucará (Centro Piscícola)</t>
+          <t>Estación de Servicio YPF de Ruta 5 Km. 8346 Comuna de Los Lagos Provincia de Valdivia Décima Región</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,15 +6915,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Piscícola Entre Rios s.a</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>15/02/2001</t>
+          <t>05/06/2001</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Proyecto de Instalación del Sistema de Alcantarillado y Tratamiento de Aguas Servidas de Folilco</t>
+          <t>Centro Pucará (Centro Piscícola)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,15 +6963,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Los Lagos</t>
+          <t>Piscícola Entre Rios s.a</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>16/08/1999</t>
+          <t>15/02/2001</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Proyecto de Instalación del Sistema de Alcantarillado y Tratamiento de las Aguas Servidas de Antilhue</t>
+          <t>Proyecto de Instalación del Sistema de Alcantarillado y Tratamiento de Aguas Servidas de Folilco</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>03/08/1999</t>
+          <t>16/08/1999</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Proyecto de Instalación del Sistema de Alcantarillado y Tratamiento de las Aguas Servidas de Antilhue</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,20 +7054,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>I. Municipalidad de Los Lagos</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2500</v>
+        <v>280</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>03/08/1999</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Restaurante Purey</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,20 +7102,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>María Borneck Matamala</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>24/07/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Camping-Hostería Purey</t>
+          <t>Restaurante Purey</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7153,26 +7153,74 @@
           <t>Decimocuarta</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>María Borneck Matamala</t>
+        </is>
+      </c>
       <c r="F142" t="n">
         <v>10</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
+          <t>24/07/1998</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1345&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Camping-Hostería Purey</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Decimocuarta</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>10</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
           <t>22/09/1997</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=49&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>Los Lagos</t>
         </is>

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Lagos.xlsx
+++ b/data/Los Lagos.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
